--- a/biology/Botanique/Tremblant_tourbeux/Tremblant_tourbeux.xlsx
+++ b/biology/Botanique/Tremblant_tourbeux/Tremblant_tourbeux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tremblant tourbeux  est, dans une tourbière de transition ou tremblante, une zone de pelouse flottante composée de radeaux végétaux flottant à la surface de l'eau, qu'ils masquent parfois totalement[1]. 
-Ce sont également des types d'habitat où l'on trouve des tapis flottant formés par des entrelacs de rhizomes où croissent sphaignes et cypéracées qui tremblent sous le poids, d'où le nom de tremblant. Les tremblants se forme en colonisant les étangs ou les mares[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tremblant tourbeux  est, dans une tourbière de transition ou tremblante, une zone de pelouse flottante composée de radeaux végétaux flottant à la surface de l'eau, qu'ils masquent parfois totalement. 
+Ce sont également des types d'habitat où l'on trouve des tapis flottant formés par des entrelacs de rhizomes où croissent sphaignes et cypéracées qui tremblent sous le poids, d'où le nom de tremblant. Les tremblants se forme en colonisant les étangs ou les mares.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Étangs de La Barette
 Grand Marais de La Queue
